--- a/Faculty Details.xlsx
+++ b/Faculty Details.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99DF64EC-0883-4290-8CA7-3C8B19FA1F1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Practicals &amp; Stuff\Attendance-Using-Face-Recognition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0A4EB-0147-4CB9-88EA-823B19943FE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="720" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -31,65 +28,65 @@
     <t>Name</t>
   </si>
   <si>
-    <t>rugved.deolekar</t>
-  </si>
-  <si>
-    <t>RVD</t>
-  </si>
-  <si>
-    <t>Rugved Deolekar</t>
-  </si>
-  <si>
-    <t>ravindra.sangle</t>
-  </si>
-  <si>
-    <t>RSG</t>
-  </si>
-  <si>
-    <t>Ravindra Sangle</t>
-  </si>
-  <si>
-    <t>suwarna.bhat</t>
-  </si>
-  <si>
-    <t>SB</t>
-  </si>
-  <si>
-    <t>Suwarna Bhat</t>
-  </si>
-  <si>
-    <t>snehal.deshmukh</t>
-  </si>
-  <si>
-    <t>SNA</t>
-  </si>
-  <si>
-    <t>Snehal Deshmukh</t>
-  </si>
-  <si>
-    <t>viswas.patil</t>
-  </si>
-  <si>
-    <t>VMP</t>
-  </si>
-  <si>
-    <t>Viswas Patil</t>
-  </si>
-  <si>
-    <t>prakash.parmar</t>
-  </si>
-  <si>
-    <t>PJP</t>
-  </si>
-  <si>
-    <t>Prakash Parmar</t>
+    <t>professor.a</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Professor A</t>
+  </si>
+  <si>
+    <t>professor.b</t>
+  </si>
+  <si>
+    <t>professor.c</t>
+  </si>
+  <si>
+    <t>professor.d</t>
+  </si>
+  <si>
+    <t>professor.e</t>
+  </si>
+  <si>
+    <t>professor.f</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Professor B</t>
+  </si>
+  <si>
+    <t>Professor C</t>
+  </si>
+  <si>
+    <t>Professor D</t>
+  </si>
+  <si>
+    <t>Professor E</t>
+  </si>
+  <si>
+    <t>Professor F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,18 +433,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -466,56 +463,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
